--- a/Code/Results/Cases/Case_3_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.052087365599135</v>
+        <v>0.354576989141492</v>
       </c>
       <c r="C2">
-        <v>0.1813184819379927</v>
+        <v>0.05622327177400166</v>
       </c>
       <c r="D2">
-        <v>0.4417150538703822</v>
+        <v>0.3638058693529729</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5836530304206278</v>
+        <v>1.100482960602299</v>
       </c>
       <c r="G2">
-        <v>0.2455105472281005</v>
+        <v>0.4918582983625797</v>
       </c>
       <c r="H2">
-        <v>0.2440197091201313</v>
+        <v>0.6498530672995457</v>
       </c>
       <c r="I2">
-        <v>0.1945372789019579</v>
+        <v>0.4978364578830146</v>
       </c>
       <c r="J2">
-        <v>0.4363127580554078</v>
+        <v>0.3482663690695773</v>
       </c>
       <c r="K2">
-        <v>1.166546391409184</v>
+        <v>0.3746607540965101</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.979839490456186</v>
+        <v>2.24597801046886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9183101942305996</v>
+        <v>0.3122309058202291</v>
       </c>
       <c r="C3">
-        <v>0.1604325318202626</v>
+        <v>0.04942440441141116</v>
       </c>
       <c r="D3">
-        <v>0.3893326624788074</v>
+        <v>0.3508189257738934</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5613074601441923</v>
+        <v>1.104065987383215</v>
       </c>
       <c r="G3">
-        <v>0.2437638148753223</v>
+        <v>0.4966008789852268</v>
       </c>
       <c r="H3">
-        <v>0.249071785063478</v>
+        <v>0.6557557282262181</v>
       </c>
       <c r="I3">
-        <v>0.2038575911900118</v>
+        <v>0.5047284444928302</v>
       </c>
       <c r="J3">
-        <v>0.385560317039392</v>
+        <v>0.3367206368869091</v>
       </c>
       <c r="K3">
-        <v>1.020447410660694</v>
+        <v>0.3280373710746289</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9863668082571593</v>
+        <v>2.268149801269601</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8361078222177696</v>
+        <v>0.2861698261037589</v>
       </c>
       <c r="C4">
-        <v>0.1475926808601713</v>
+        <v>0.04522923779958887</v>
       </c>
       <c r="D4">
-        <v>0.3574486405201753</v>
+        <v>0.342995951910666</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5488039213745566</v>
+        <v>1.106917768764816</v>
       </c>
       <c r="G4">
-        <v>0.2434463924275363</v>
+        <v>0.499873451737102</v>
       </c>
       <c r="H4">
-        <v>0.2526506332770921</v>
+        <v>0.659668871537427</v>
       </c>
       <c r="I4">
-        <v>0.2101399593757129</v>
+        <v>0.5092540847112179</v>
       </c>
       <c r="J4">
-        <v>0.3548746596960228</v>
+        <v>0.3298320962886976</v>
       </c>
       <c r="K4">
-        <v>0.9306549022365971</v>
+        <v>0.2993212961998211</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9929652810262297</v>
+        <v>2.283124416136715</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8025863808535689</v>
+        <v>0.2755352827400088</v>
       </c>
       <c r="C5">
-        <v>0.1423551537109091</v>
+        <v>0.0435145953079541</v>
       </c>
       <c r="D5">
-        <v>0.3445191866798183</v>
+        <v>0.3398462065774339</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5440001855990246</v>
+        <v>1.108243808605337</v>
       </c>
       <c r="G5">
-        <v>0.2434981313504636</v>
+        <v>0.5012976340262014</v>
       </c>
       <c r="H5">
-        <v>0.2542251264854869</v>
+        <v>0.6613361837891603</v>
       </c>
       <c r="I5">
-        <v>0.2128359201119761</v>
+        <v>0.5111721900710808</v>
       </c>
       <c r="J5">
-        <v>0.3424794168445402</v>
+        <v>0.327075422774243</v>
       </c>
       <c r="K5">
-        <v>0.8940335450062662</v>
+        <v>0.2875976534148492</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9962790222038933</v>
+        <v>2.289568797625904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7970185518135509</v>
+        <v>0.2737685747786429</v>
       </c>
       <c r="C6">
-        <v>0.1414851193801212</v>
+        <v>0.04322957679443107</v>
       </c>
       <c r="D6">
-        <v>0.3423759117178946</v>
+        <v>0.3393255054626536</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5432197295323036</v>
+        <v>1.108473897160145</v>
       </c>
       <c r="G6">
-        <v>0.2435174105563647</v>
+        <v>0.5015395865463432</v>
       </c>
       <c r="H6">
-        <v>0.2544934723873595</v>
+        <v>0.6616174300261548</v>
       </c>
       <c r="I6">
-        <v>0.2132916480140779</v>
+        <v>0.5114951503668976</v>
       </c>
       <c r="J6">
-        <v>0.3404275094999321</v>
+        <v>0.3266207277699351</v>
       </c>
       <c r="K6">
-        <v>0.8879505422684133</v>
+        <v>0.2856496700153173</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9968662466090592</v>
+        <v>2.290659540368949</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8356558443454389</v>
+        <v>0.2860264624111721</v>
       </c>
       <c r="C7">
-        <v>0.14752206826887</v>
+        <v>0.04520613394456063</v>
       </c>
       <c r="D7">
-        <v>0.3572740205914897</v>
+        <v>0.3429533184972797</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5487379745647232</v>
+        <v>1.106934988489606</v>
       </c>
       <c r="G7">
-        <v>0.2434463682879127</v>
+        <v>0.4998922921204567</v>
       </c>
       <c r="H7">
-        <v>0.2526714023556877</v>
+        <v>0.6596910631949697</v>
       </c>
       <c r="I7">
-        <v>0.2101757743212591</v>
+        <v>0.5092796539083455</v>
       </c>
       <c r="J7">
-        <v>0.3547070635122793</v>
+        <v>0.3297947144717881</v>
       </c>
       <c r="K7">
-        <v>0.9301611465527344</v>
+        <v>0.2991632734809855</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9930074758121634</v>
+        <v>2.283209942340875</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.005969265087657</v>
+        <v>0.3399890345640699</v>
       </c>
       <c r="C8">
-        <v>0.174119523001508</v>
+        <v>0.05388336929770787</v>
       </c>
       <c r="D8">
-        <v>0.423591609141539</v>
+        <v>0.3592967301938188</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5756868691478871</v>
+        <v>1.101583118434711</v>
       </c>
       <c r="G8">
-        <v>0.2447461526721781</v>
+        <v>0.4934186380576335</v>
       </c>
       <c r="H8">
-        <v>0.2456603395860739</v>
+        <v>0.6518283659384991</v>
       </c>
       <c r="I8">
-        <v>0.1976317626696193</v>
+        <v>0.500151784823224</v>
       </c>
       <c r="J8">
-        <v>0.4187079631771695</v>
+        <v>0.3442437791029676</v>
       </c>
       <c r="K8">
-        <v>1.116184365688781</v>
+        <v>0.3586039774162657</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9815360186695301</v>
+        <v>2.253340273830275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.339837025320577</v>
+        <v>0.4453022527637245</v>
       </c>
       <c r="C9">
-        <v>0.2262130700891447</v>
+        <v>0.07073160211504614</v>
       </c>
       <c r="D9">
-        <v>0.5561744926225458</v>
+        <v>0.3925381009032947</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6388728451301944</v>
+        <v>1.096260078139693</v>
       </c>
       <c r="G9">
-        <v>0.2537018187467552</v>
+        <v>0.4835895975822027</v>
       </c>
       <c r="H9">
-        <v>0.2358761092018682</v>
+        <v>0.6387003923760375</v>
       </c>
       <c r="I9">
-        <v>0.1777034541407208</v>
+        <v>0.4845859849575209</v>
       </c>
       <c r="J9">
-        <v>0.5484965028041273</v>
+        <v>0.3741707445194749</v>
       </c>
       <c r="K9">
-        <v>1.480700942279185</v>
+        <v>0.4744300583580525</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9808567069284919</v>
+        <v>2.205572046147267</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.585647760383324</v>
+        <v>0.52233665861894</v>
       </c>
       <c r="C10">
-        <v>0.2645425000014114</v>
+        <v>0.08300339220755859</v>
       </c>
       <c r="D10">
-        <v>0.65560866714236</v>
+        <v>0.4176811363624324</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.692606401163502</v>
+        <v>1.095504279907153</v>
       </c>
       <c r="G10">
-        <v>0.2647956588571034</v>
+        <v>0.4781217560015918</v>
       </c>
       <c r="H10">
-        <v>0.2313688837032686</v>
+        <v>0.6304498247039589</v>
       </c>
       <c r="I10">
-        <v>0.1662436518159325</v>
+        <v>0.4745747218685779</v>
       </c>
       <c r="J10">
-        <v>0.6472101600474502</v>
+        <v>0.3971327650132963</v>
       </c>
       <c r="K10">
-        <v>1.748989772363331</v>
+        <v>0.5590463496054383</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9955017312007755</v>
+        <v>2.17707447151983</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.697728112682711</v>
+        <v>0.5573020659880967</v>
       </c>
       <c r="C11">
-        <v>0.2820149651159056</v>
+        <v>0.08856215963561453</v>
       </c>
       <c r="D11">
-        <v>0.7013979803851385</v>
+        <v>0.4292747047656178</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7188766732244716</v>
+        <v>1.095846084125512</v>
       </c>
       <c r="G11">
-        <v>0.2709660848522049</v>
+        <v>0.4760164721412181</v>
       </c>
       <c r="H11">
-        <v>0.2299630062371278</v>
+        <v>0.6269988396135631</v>
       </c>
       <c r="I11">
-        <v>0.1617996168013889</v>
+        <v>0.4703301962471578</v>
       </c>
       <c r="J11">
-        <v>0.6930245738874135</v>
+        <v>0.4077914166588812</v>
       </c>
       <c r="K11">
-        <v>1.871301335090067</v>
+        <v>0.5974297861740752</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.005887266652692</v>
+        <v>2.165545047829866</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.740219642837957</v>
+        <v>0.5705306914873916</v>
       </c>
       <c r="C12">
-        <v>0.2886385591731369</v>
+        <v>0.09066361141790935</v>
       </c>
       <c r="D12">
-        <v>0.718827200246352</v>
+        <v>0.4336871432487612</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7291083468401638</v>
+        <v>1.096074123298308</v>
       </c>
       <c r="G12">
-        <v>0.2734770319822388</v>
+        <v>0.4752743076454991</v>
       </c>
       <c r="H12">
-        <v>0.2295288894104033</v>
+        <v>0.6257354760532863</v>
       </c>
       <c r="I12">
-        <v>0.1602343807394568</v>
+        <v>0.4687674783832456</v>
       </c>
       <c r="J12">
-        <v>0.7105197864703996</v>
+        <v>0.4118582332731648</v>
       </c>
       <c r="K12">
-        <v>1.917669219901342</v>
+        <v>0.6119482263961231</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.010394190877363</v>
+        <v>2.161385585849345</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.731065949393553</v>
+        <v>0.5676822175381631</v>
       </c>
       <c r="C13">
-        <v>0.2872116990170923</v>
+        <v>0.09021118520865912</v>
       </c>
       <c r="D13">
-        <v>0.7150693483262387</v>
+        <v>0.4327358614002037</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7268918058469609</v>
+        <v>1.096020625275287</v>
       </c>
       <c r="G13">
-        <v>0.272928288976118</v>
+        <v>0.4754316952975941</v>
       </c>
       <c r="H13">
-        <v>0.2296179213545244</v>
+        <v>0.6260056317586233</v>
       </c>
       <c r="I13">
-        <v>0.160566134334271</v>
+        <v>0.4691020533699373</v>
       </c>
       <c r="J13">
-        <v>0.7067451134668943</v>
+        <v>0.4109810103449973</v>
       </c>
       <c r="K13">
-        <v>1.907680574471755</v>
+        <v>0.6088221696903418</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.009397365174607</v>
+        <v>2.162272213410091</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.701222861153525</v>
+        <v>0.5583906384011357</v>
       </c>
       <c r="C14">
-        <v>0.2825597371814297</v>
+        <v>0.08873511882728735</v>
       </c>
       <c r="D14">
-        <v>0.7028300343797014</v>
+        <v>0.4296372748985107</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7197126281610622</v>
+        <v>1.095862868772471</v>
       </c>
       <c r="G14">
-        <v>0.2711690920010739</v>
+        <v>0.4759543096345524</v>
       </c>
       <c r="H14">
-        <v>0.2299252886592171</v>
+        <v>0.626894031206767</v>
       </c>
       <c r="I14">
-        <v>0.1616684447011529</v>
+        <v>0.4702007364496801</v>
       </c>
       <c r="J14">
-        <v>0.6944608906144083</v>
+        <v>0.4081253826776816</v>
       </c>
       <c r="K14">
-        <v>1.875114946022023</v>
+        <v>0.5986245633244778</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.006246316480158</v>
+        <v>2.165198706872246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682949870959902</v>
+        <v>0.5526976891626703</v>
       </c>
       <c r="C15">
-        <v>0.2797112678266274</v>
+        <v>0.0878305219135882</v>
       </c>
       <c r="D15">
-        <v>0.69534509891011</v>
+        <v>0.4277421868283113</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7153527673414573</v>
+        <v>1.095779080076355</v>
       </c>
       <c r="G15">
-        <v>0.2701146296258159</v>
+        <v>0.4762816001055157</v>
       </c>
       <c r="H15">
-        <v>0.2301265280713594</v>
+        <v>0.6274438595850427</v>
       </c>
       <c r="I15">
-        <v>0.1623591758267828</v>
+        <v>0.4708795206591248</v>
       </c>
       <c r="J15">
-        <v>0.6869559812855925</v>
+        <v>0.4063802145781921</v>
       </c>
       <c r="K15">
-        <v>1.855174620892342</v>
+        <v>0.5923760560027915</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.004392171209659</v>
+        <v>2.167018165422718</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.578329260302837</v>
+        <v>0.5200499496259852</v>
       </c>
       <c r="C16">
-        <v>0.2634015245992885</v>
+        <v>0.08263962585486695</v>
       </c>
       <c r="D16">
-        <v>0.6526282441720923</v>
+        <v>0.4169265881650404</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6909280994297546</v>
+        <v>1.095495739855878</v>
       </c>
       <c r="G16">
-        <v>0.2644160910686821</v>
+        <v>0.4782670396825424</v>
       </c>
       <c r="H16">
-        <v>0.2314741987641327</v>
+        <v>0.6306814354917023</v>
       </c>
       <c r="I16">
-        <v>0.1665501469960127</v>
+        <v>0.4748583480597546</v>
       </c>
       <c r="J16">
-        <v>0.6442356789096095</v>
+        <v>0.3964404830072823</v>
       </c>
       <c r="K16">
-        <v>1.741002854235944</v>
+        <v>0.5565356352804542</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9949011906669512</v>
+        <v>2.177856827684579</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.514222551286991</v>
+        <v>0.5000010824323908</v>
       </c>
       <c r="C17">
-        <v>0.2534066346653958</v>
+        <v>0.07944901535294946</v>
       </c>
       <c r="D17">
-        <v>0.6265720714968666</v>
+        <v>0.4103313436432927</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6764267282773773</v>
+        <v>1.095497533997872</v>
       </c>
       <c r="G17">
-        <v>0.2612168615866537</v>
+        <v>0.479582984435666</v>
       </c>
       <c r="H17">
-        <v>0.2324698781895904</v>
+        <v>0.632744985591799</v>
       </c>
       <c r="I17">
-        <v>0.1693230198578171</v>
+        <v>0.4773785843109444</v>
       </c>
       <c r="J17">
-        <v>0.6182717264627229</v>
+        <v>0.3903973429306831</v>
       </c>
       <c r="K17">
-        <v>1.671039117574026</v>
+        <v>0.5345201769616779</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9900592193417452</v>
+        <v>2.18487351347126</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.477373766858705</v>
+        <v>0.4884622173137529</v>
       </c>
       <c r="C18">
-        <v>0.2476611216445548</v>
+        <v>0.07761163402373938</v>
       </c>
       <c r="D18">
-        <v>0.611636976335916</v>
+        <v>0.4065526176958656</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6682565141884638</v>
+        <v>1.09556309904287</v>
       </c>
       <c r="G18">
-        <v>0.2594817153141662</v>
+        <v>0.4803758356517989</v>
       </c>
       <c r="H18">
-        <v>0.2331028733966747</v>
+        <v>0.6339603339546684</v>
       </c>
       <c r="I18">
-        <v>0.1709898471889524</v>
+        <v>0.4788572992298263</v>
       </c>
       <c r="J18">
-        <v>0.6034225194632938</v>
+        <v>0.3869415496426711</v>
       </c>
       <c r="K18">
-        <v>1.630821996119096</v>
+        <v>0.5218472655326991</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9876222521384932</v>
+        <v>2.189044311509846</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.464901127443596</v>
+        <v>0.4845541290070798</v>
       </c>
       <c r="C19">
-        <v>0.2457162968944857</v>
+        <v>0.07698914953422786</v>
       </c>
       <c r="D19">
-        <v>0.6065888054892241</v>
+        <v>0.4052757344114752</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.665518900737986</v>
+        <v>1.095596381420272</v>
       </c>
       <c r="G19">
-        <v>0.2589118775370096</v>
+        <v>0.4806504530053033</v>
       </c>
       <c r="H19">
-        <v>0.2333273881573561</v>
+        <v>0.634376716529907</v>
       </c>
       <c r="I19">
-        <v>0.1715663555951785</v>
+        <v>0.4793629698281947</v>
       </c>
       <c r="J19">
-        <v>0.598408901831732</v>
+        <v>0.3857749237761965</v>
       </c>
       <c r="K19">
-        <v>1.617208942112995</v>
+        <v>0.5175547097831839</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9868557677438332</v>
+        <v>2.190479648850655</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.521044284649321</v>
+        <v>0.5021360786163882</v>
       </c>
       <c r="C20">
-        <v>0.2544702543725066</v>
+        <v>0.07978889260138544</v>
       </c>
       <c r="D20">
-        <v>0.6293403731122282</v>
+        <v>0.4110319004278153</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6779526205118103</v>
+        <v>1.09549066396913</v>
       </c>
       <c r="G20">
-        <v>0.2615464717478417</v>
+        <v>0.4794391778288585</v>
       </c>
       <c r="H20">
-        <v>0.2323576056033403</v>
+        <v>0.6325223728912803</v>
       </c>
       <c r="I20">
-        <v>0.1690203473165077</v>
+        <v>0.4771072843340995</v>
       </c>
       <c r="J20">
-        <v>0.6210267714046154</v>
+        <v>0.3910385694715757</v>
       </c>
       <c r="K20">
-        <v>1.678484284615706</v>
+        <v>0.5368648222653576</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9905383655092521</v>
+        <v>2.184112603042351</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.70998706789527</v>
+        <v>0.5611201329543292</v>
       </c>
       <c r="C21">
-        <v>0.2839259207980831</v>
+        <v>0.08916877213948737</v>
       </c>
       <c r="D21">
-        <v>0.7064224987625494</v>
+        <v>0.4305468038758136</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7218134528639553</v>
+        <v>1.095906529456215</v>
       </c>
       <c r="G21">
-        <v>0.2716809735780998</v>
+        <v>0.4757993098459679</v>
       </c>
       <c r="H21">
-        <v>0.2298322944175126</v>
+        <v>0.6266319076395703</v>
       </c>
       <c r="I21">
-        <v>0.1613414189432056</v>
+        <v>0.4698768158702826</v>
       </c>
       <c r="J21">
-        <v>0.6980649648617998</v>
+        <v>0.4089633190565962</v>
       </c>
       <c r="K21">
-        <v>1.884678764134577</v>
+        <v>0.6016203031500993</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.007155952557397</v>
+        <v>2.16433351911725</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.833764593670907</v>
+        <v>0.5995992136623158</v>
       </c>
       <c r="C22">
-        <v>0.3032195986968134</v>
+        <v>0.09527841832198192</v>
       </c>
       <c r="D22">
-        <v>0.7573286074862153</v>
+        <v>0.4434302560893002</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7521433930722878</v>
+        <v>1.096753074516968</v>
       </c>
       <c r="G22">
-        <v>0.2793271671682831</v>
+        <v>0.4737414374487514</v>
       </c>
       <c r="H22">
-        <v>0.2287574416258451</v>
+        <v>0.623035400100342</v>
       </c>
       <c r="I22">
-        <v>0.1570119804330901</v>
+        <v>0.4654112322640032</v>
       </c>
       <c r="J22">
-        <v>0.7492745949435999</v>
+        <v>0.4208566215411196</v>
       </c>
       <c r="K22">
-        <v>2.019743653891965</v>
+        <v>0.6438449784263867</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.02138289267883</v>
+        <v>2.152610378831426</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.76767131216414</v>
+        <v>0.5790689131097224</v>
       </c>
       <c r="C23">
-        <v>0.2929176091350598</v>
+        <v>0.09201951400999064</v>
       </c>
       <c r="D23">
-        <v>0.7301072781232847</v>
+        <v>0.4365423502285637</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7357961288262658</v>
+        <v>1.09624866327772</v>
       </c>
       <c r="G23">
-        <v>0.2751482424943177</v>
+        <v>0.4748103523823346</v>
       </c>
       <c r="H23">
-        <v>0.2292765035058721</v>
+        <v>0.6249317552324243</v>
       </c>
       <c r="I23">
-        <v>0.1592571834722705</v>
+        <v>0.4677707918667977</v>
       </c>
       <c r="J23">
-        <v>0.7218588595000739</v>
+        <v>0.414492624547961</v>
       </c>
       <c r="K23">
-        <v>1.947624542744876</v>
+        <v>0.6213180157621991</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.013468221504837</v>
+        <v>2.158757029641265</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.5179601580206</v>
+        <v>0.5011708857298629</v>
       </c>
       <c r="C24">
-        <v>0.2539893899227081</v>
+        <v>0.07963524361019836</v>
       </c>
       <c r="D24">
-        <v>0.6280886846907379</v>
+        <v>0.4107151382963252</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6772622466075902</v>
+        <v>1.095493568892763</v>
       </c>
       <c r="G24">
-        <v>0.2613971315957428</v>
+        <v>0.4795040797422061</v>
       </c>
       <c r="H24">
-        <v>0.2324081758084375</v>
+        <v>0.6326229258021172</v>
       </c>
       <c r="I24">
-        <v>0.1691569597612883</v>
+        <v>0.4772298462411193</v>
       </c>
       <c r="J24">
-        <v>0.6197809743733131</v>
+        <v>0.3907486133628879</v>
       </c>
       <c r="K24">
-        <v>1.67511830699101</v>
+        <v>0.5358048576820522</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9903206663875324</v>
+        <v>2.184456184504285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.24947106409644</v>
+        <v>0.416869651338402</v>
       </c>
       <c r="C25">
-        <v>0.2121178253473062</v>
+        <v>0.06619212042424749</v>
       </c>
       <c r="D25">
-        <v>0.5199881798043577</v>
+        <v>0.3834184442833646</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6205720448411753</v>
+        <v>1.097146189578567</v>
       </c>
       <c r="G25">
-        <v>0.2505325188523813</v>
+        <v>0.4859411376194984</v>
       </c>
       <c r="H25">
-        <v>0.2380722292964279</v>
+        <v>0.642006818713007</v>
       </c>
       <c r="I25">
-        <v>0.1825612169237303</v>
+        <v>0.4885468655629701</v>
       </c>
       <c r="J25">
-        <v>0.5128524841292972</v>
+        <v>0.3659038219808366</v>
       </c>
       <c r="K25">
-        <v>1.382055001359419</v>
+        <v>0.4431782373231101</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9785210190254219</v>
+        <v>2.217336706370588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.354576989141492</v>
+        <v>1.052087365599164</v>
       </c>
       <c r="C2">
-        <v>0.05622327177400166</v>
+        <v>0.1813184819377085</v>
       </c>
       <c r="D2">
-        <v>0.3638058693529729</v>
+        <v>0.4417150538703538</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100482960602299</v>
+        <v>0.5836530304206278</v>
       </c>
       <c r="G2">
-        <v>0.4918582983625797</v>
+        <v>0.2455105472280934</v>
       </c>
       <c r="H2">
-        <v>0.6498530672995457</v>
+        <v>0.244019709120245</v>
       </c>
       <c r="I2">
-        <v>0.4978364578830146</v>
+        <v>0.194537278901965</v>
       </c>
       <c r="J2">
-        <v>0.3482663690695773</v>
+        <v>0.4363127580553368</v>
       </c>
       <c r="K2">
-        <v>0.3746607540965101</v>
+        <v>1.166546391409213</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.24597801046886</v>
+        <v>0.9798394904561718</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3122309058202291</v>
+        <v>0.9183101942307701</v>
       </c>
       <c r="C3">
-        <v>0.04942440441141116</v>
+        <v>0.1604325318204332</v>
       </c>
       <c r="D3">
-        <v>0.3508189257738934</v>
+        <v>0.3893326624787221</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.104065987383215</v>
+        <v>0.5613074601441852</v>
       </c>
       <c r="G3">
-        <v>0.4966008789852268</v>
+        <v>0.2437638148752086</v>
       </c>
       <c r="H3">
-        <v>0.6557557282262181</v>
+        <v>0.249071785063478</v>
       </c>
       <c r="I3">
-        <v>0.5047284444928302</v>
+        <v>0.2038575911900171</v>
       </c>
       <c r="J3">
-        <v>0.3367206368869091</v>
+        <v>0.385560317039463</v>
       </c>
       <c r="K3">
-        <v>0.3280373710746289</v>
+        <v>1.020447410660665</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.268149801269601</v>
+        <v>0.9863668082571593</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2861698261037589</v>
+        <v>0.8361078222177696</v>
       </c>
       <c r="C4">
-        <v>0.04522923779958887</v>
+        <v>0.1475926808601287</v>
       </c>
       <c r="D4">
-        <v>0.342995951910666</v>
+        <v>0.3574486405199906</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.106917768764816</v>
+        <v>0.5488039213745353</v>
       </c>
       <c r="G4">
-        <v>0.499873451737102</v>
+        <v>0.2434463924275292</v>
       </c>
       <c r="H4">
-        <v>0.659668871537427</v>
+        <v>0.2526506332771916</v>
       </c>
       <c r="I4">
-        <v>0.5092540847112179</v>
+        <v>0.2101399593757076</v>
       </c>
       <c r="J4">
-        <v>0.3298320962886976</v>
+        <v>0.3548746596960513</v>
       </c>
       <c r="K4">
-        <v>0.2993212961998211</v>
+        <v>0.9306549022365687</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.283124416136715</v>
+        <v>0.9929652810262013</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2755352827400088</v>
+        <v>0.8025863808534837</v>
       </c>
       <c r="C5">
-        <v>0.0435145953079541</v>
+        <v>0.1423551537106817</v>
       </c>
       <c r="D5">
-        <v>0.3398462065774339</v>
+        <v>0.3445191866799178</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.108243808605337</v>
+        <v>0.5440001855990104</v>
       </c>
       <c r="G5">
-        <v>0.5012976340262014</v>
+        <v>0.2434981313504565</v>
       </c>
       <c r="H5">
-        <v>0.6613361837891603</v>
+        <v>0.2542251264856006</v>
       </c>
       <c r="I5">
-        <v>0.5111721900710808</v>
+        <v>0.2128359201119743</v>
       </c>
       <c r="J5">
-        <v>0.327075422774243</v>
+        <v>0.3424794168445544</v>
       </c>
       <c r="K5">
-        <v>0.2875976534148492</v>
+        <v>0.8940335450064367</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.289568797625904</v>
+        <v>0.9962790222039359</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2737685747786429</v>
+        <v>0.7970185518134087</v>
       </c>
       <c r="C6">
-        <v>0.04322957679443107</v>
+        <v>0.1414851193799365</v>
       </c>
       <c r="D6">
-        <v>0.3393255054626536</v>
+        <v>0.3423759117179088</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.108473897160145</v>
+        <v>0.5432197295322965</v>
       </c>
       <c r="G6">
-        <v>0.5015395865463432</v>
+        <v>0.2435174105563789</v>
       </c>
       <c r="H6">
-        <v>0.6616174300261548</v>
+        <v>0.2544934723873524</v>
       </c>
       <c r="I6">
-        <v>0.5114951503668976</v>
+        <v>0.2132916480140725</v>
       </c>
       <c r="J6">
-        <v>0.3266207277699351</v>
+        <v>0.3404275094999889</v>
       </c>
       <c r="K6">
-        <v>0.2856496700153173</v>
+        <v>0.8879505422684133</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.290659540368949</v>
+        <v>0.996866246609045</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2860264624111721</v>
+        <v>0.8356558443455242</v>
       </c>
       <c r="C7">
-        <v>0.04520613394456063</v>
+        <v>0.1475220682691116</v>
       </c>
       <c r="D7">
-        <v>0.3429533184972797</v>
+        <v>0.3572740205914897</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.106934988489606</v>
+        <v>0.5487379745647232</v>
       </c>
       <c r="G7">
-        <v>0.4998922921204567</v>
+        <v>0.2434463682878985</v>
       </c>
       <c r="H7">
-        <v>0.6596910631949697</v>
+        <v>0.2526714023556877</v>
       </c>
       <c r="I7">
-        <v>0.5092796539083455</v>
+        <v>0.2101757743212556</v>
       </c>
       <c r="J7">
-        <v>0.3297947144717881</v>
+        <v>0.3547070635122935</v>
       </c>
       <c r="K7">
-        <v>0.2991632734809855</v>
+        <v>0.930161146552706</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.283209942340875</v>
+        <v>0.9930074758121492</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3399890345640699</v>
+        <v>1.005969265087771</v>
       </c>
       <c r="C8">
-        <v>0.05388336929770787</v>
+        <v>0.1741195230014938</v>
       </c>
       <c r="D8">
-        <v>0.3592967301938188</v>
+        <v>0.423591609141539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.101583118434711</v>
+        <v>0.5756868691478942</v>
       </c>
       <c r="G8">
-        <v>0.4934186380576335</v>
+        <v>0.2447461526721639</v>
       </c>
       <c r="H8">
-        <v>0.6518283659384991</v>
+        <v>0.245660339586081</v>
       </c>
       <c r="I8">
-        <v>0.500151784823224</v>
+        <v>0.1976317626696353</v>
       </c>
       <c r="J8">
-        <v>0.3442437791029676</v>
+        <v>0.4187079631770985</v>
       </c>
       <c r="K8">
-        <v>0.3586039774162657</v>
+        <v>1.116184365688923</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.253340273830275</v>
+        <v>0.9815360186695443</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4453022527637245</v>
+        <v>1.339837025320435</v>
       </c>
       <c r="C9">
-        <v>0.07073160211504614</v>
+        <v>0.22621307008869</v>
       </c>
       <c r="D9">
-        <v>0.3925381009032947</v>
+        <v>0.5561744926222048</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.096260078139693</v>
+        <v>0.6388728451301873</v>
       </c>
       <c r="G9">
-        <v>0.4835895975822027</v>
+        <v>0.2537018187467552</v>
       </c>
       <c r="H9">
-        <v>0.6387003923760375</v>
+        <v>0.235876109201854</v>
       </c>
       <c r="I9">
-        <v>0.4845859849575209</v>
+        <v>0.1777034541407012</v>
       </c>
       <c r="J9">
-        <v>0.3741707445194749</v>
+        <v>0.5484965028041415</v>
       </c>
       <c r="K9">
-        <v>0.4744300583580525</v>
+        <v>1.480700942279128</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.205572046147267</v>
+        <v>0.9808567069284067</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.52233665861894</v>
+        <v>1.585647760383296</v>
       </c>
       <c r="C10">
-        <v>0.08300339220755859</v>
+        <v>0.2645425000017525</v>
       </c>
       <c r="D10">
-        <v>0.4176811363624324</v>
+        <v>0.6556086671423316</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.095504279907153</v>
+        <v>0.692606401163502</v>
       </c>
       <c r="G10">
-        <v>0.4781217560015918</v>
+        <v>0.2647956588570466</v>
       </c>
       <c r="H10">
-        <v>0.6304498247039589</v>
+        <v>0.2313688837032686</v>
       </c>
       <c r="I10">
-        <v>0.4745747218685779</v>
+        <v>0.1662436518159325</v>
       </c>
       <c r="J10">
-        <v>0.3971327650132963</v>
+        <v>0.6472101600474218</v>
       </c>
       <c r="K10">
-        <v>0.5590463496054383</v>
+        <v>1.748989772363331</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.17707447151983</v>
+        <v>0.9955017312008039</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5573020659880967</v>
+        <v>1.697728112682682</v>
       </c>
       <c r="C11">
-        <v>0.08856215963561453</v>
+        <v>0.2820149651160193</v>
       </c>
       <c r="D11">
-        <v>0.4292747047656178</v>
+        <v>0.7013979803850248</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.095846084125512</v>
+        <v>0.7188766732244716</v>
       </c>
       <c r="G11">
-        <v>0.4760164721412181</v>
+        <v>0.2709660848521622</v>
       </c>
       <c r="H11">
-        <v>0.6269988396135631</v>
+        <v>0.2299630062372415</v>
       </c>
       <c r="I11">
-        <v>0.4703301962471578</v>
+        <v>0.1617996168014102</v>
       </c>
       <c r="J11">
-        <v>0.4077914166588812</v>
+        <v>0.6930245738874561</v>
       </c>
       <c r="K11">
-        <v>0.5974297861740752</v>
+        <v>1.87130133509001</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.165545047829866</v>
+        <v>1.00588726665265</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5705306914873916</v>
+        <v>1.740219642837957</v>
       </c>
       <c r="C12">
-        <v>0.09066361141790935</v>
+        <v>0.2886385591733074</v>
       </c>
       <c r="D12">
-        <v>0.4336871432487612</v>
+        <v>0.7188272002464657</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.096074123298308</v>
+        <v>0.7291083468401496</v>
       </c>
       <c r="G12">
-        <v>0.4752743076454991</v>
+        <v>0.2734770319823028</v>
       </c>
       <c r="H12">
-        <v>0.6257354760532863</v>
+        <v>0.2295288894102825</v>
       </c>
       <c r="I12">
-        <v>0.4687674783832456</v>
+        <v>0.1602343807394568</v>
       </c>
       <c r="J12">
-        <v>0.4118582332731648</v>
+        <v>0.710519786470357</v>
       </c>
       <c r="K12">
-        <v>0.6119482263961231</v>
+        <v>1.91766921990137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.161385585849345</v>
+        <v>1.010394190877363</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5676822175381631</v>
+        <v>1.731065949393582</v>
       </c>
       <c r="C13">
-        <v>0.09021118520865912</v>
+        <v>0.2872116990172628</v>
       </c>
       <c r="D13">
-        <v>0.4327358614002037</v>
+        <v>0.7150693483262955</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.096020625275287</v>
+        <v>0.7268918058469609</v>
       </c>
       <c r="G13">
-        <v>0.4754316952975941</v>
+        <v>0.2729282889761748</v>
       </c>
       <c r="H13">
-        <v>0.6260056317586233</v>
+        <v>0.2296179213545244</v>
       </c>
       <c r="I13">
-        <v>0.4691020533699373</v>
+        <v>0.1605661343342639</v>
       </c>
       <c r="J13">
-        <v>0.4109810103449973</v>
+        <v>0.7067451134669938</v>
       </c>
       <c r="K13">
-        <v>0.6088221696903418</v>
+        <v>1.90768057447184</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.162272213410091</v>
+        <v>1.00939736517465</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5583906384011357</v>
+        <v>1.701222861153781</v>
       </c>
       <c r="C14">
-        <v>0.08873511882728735</v>
+        <v>0.2825597371818844</v>
       </c>
       <c r="D14">
-        <v>0.4296372748985107</v>
+        <v>0.7028300343795593</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.095862868772471</v>
+        <v>0.7197126281610622</v>
       </c>
       <c r="G14">
-        <v>0.4759543096345524</v>
+        <v>0.2711690920010739</v>
       </c>
       <c r="H14">
-        <v>0.626894031206767</v>
+        <v>0.22992528865921</v>
       </c>
       <c r="I14">
-        <v>0.4702007364496801</v>
+        <v>0.1616684447011707</v>
       </c>
       <c r="J14">
-        <v>0.4081253826776816</v>
+        <v>0.6944608906144083</v>
       </c>
       <c r="K14">
-        <v>0.5986245633244778</v>
+        <v>1.875114946022052</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.165198706872246</v>
+        <v>1.006246316480144</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5526976891626703</v>
+        <v>1.682949870959959</v>
       </c>
       <c r="C15">
-        <v>0.0878305219135882</v>
+        <v>0.2797112678269968</v>
       </c>
       <c r="D15">
-        <v>0.4277421868283113</v>
+        <v>0.6953450989100816</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.095779080076355</v>
+        <v>0.715352767341443</v>
       </c>
       <c r="G15">
-        <v>0.4762816001055157</v>
+        <v>0.2701146296257591</v>
       </c>
       <c r="H15">
-        <v>0.6274438595850427</v>
+        <v>0.2301265280713594</v>
       </c>
       <c r="I15">
-        <v>0.4708795206591248</v>
+        <v>0.1623591758267864</v>
       </c>
       <c r="J15">
-        <v>0.4063802145781921</v>
+        <v>0.6869559812855357</v>
       </c>
       <c r="K15">
-        <v>0.5923760560027915</v>
+        <v>1.855174620892342</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.167018165422718</v>
+        <v>1.004392171209659</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5200499496259852</v>
+        <v>1.578329260302837</v>
       </c>
       <c r="C16">
-        <v>0.08263962585486695</v>
+        <v>0.2634015245992885</v>
       </c>
       <c r="D16">
-        <v>0.4169265881650404</v>
+        <v>0.6526282441720639</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.095495739855878</v>
+        <v>0.6909280994297475</v>
       </c>
       <c r="G16">
-        <v>0.4782670396825424</v>
+        <v>0.2644160910686324</v>
       </c>
       <c r="H16">
-        <v>0.6306814354917023</v>
+        <v>0.2314741987641256</v>
       </c>
       <c r="I16">
-        <v>0.4748583480597546</v>
+        <v>0.1665501469960162</v>
       </c>
       <c r="J16">
-        <v>0.3964404830072823</v>
+        <v>0.6442356789095811</v>
       </c>
       <c r="K16">
-        <v>0.5565356352804542</v>
+        <v>1.741002854235973</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.177856827684579</v>
+        <v>0.9949011906669654</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5000010824323908</v>
+        <v>1.51422255128702</v>
       </c>
       <c r="C17">
-        <v>0.07944901535294946</v>
+        <v>0.2534066346653674</v>
       </c>
       <c r="D17">
-        <v>0.4103313436432927</v>
+        <v>0.6265720714967529</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.095497533997872</v>
+        <v>0.6764267282773631</v>
       </c>
       <c r="G17">
-        <v>0.479582984435666</v>
+        <v>0.261216861586604</v>
       </c>
       <c r="H17">
-        <v>0.632744985591799</v>
+        <v>0.2324698781895904</v>
       </c>
       <c r="I17">
-        <v>0.4773785843109444</v>
+        <v>0.1693230198578313</v>
       </c>
       <c r="J17">
-        <v>0.3903973429306831</v>
+        <v>0.6182717264627655</v>
       </c>
       <c r="K17">
-        <v>0.5345201769616779</v>
+        <v>1.671039117574026</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.18487351347126</v>
+        <v>0.990059219341731</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4884622173137529</v>
+        <v>1.477373766858619</v>
       </c>
       <c r="C18">
-        <v>0.07761163402373938</v>
+        <v>0.2476611216445406</v>
       </c>
       <c r="D18">
-        <v>0.4065526176958656</v>
+        <v>0.6116369763359444</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.09556309904287</v>
+        <v>0.6682565141884638</v>
       </c>
       <c r="G18">
-        <v>0.4803758356517989</v>
+        <v>0.2594817153141662</v>
       </c>
       <c r="H18">
-        <v>0.6339603339546684</v>
+        <v>0.233102873396561</v>
       </c>
       <c r="I18">
-        <v>0.4788572992298263</v>
+        <v>0.1709898471889524</v>
       </c>
       <c r="J18">
-        <v>0.3869415496426711</v>
+        <v>0.6034225194632654</v>
       </c>
       <c r="K18">
-        <v>0.5218472655326991</v>
+        <v>1.630821996119124</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.189044311509846</v>
+        <v>0.9876222521384932</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4845541290070798</v>
+        <v>1.464901127443568</v>
       </c>
       <c r="C19">
-        <v>0.07698914953422786</v>
+        <v>0.2457162968949547</v>
       </c>
       <c r="D19">
-        <v>0.4052757344114752</v>
+        <v>0.6065888054893662</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.095596381420272</v>
+        <v>0.6655189007380073</v>
       </c>
       <c r="G19">
-        <v>0.4806504530053033</v>
+        <v>0.2589118775370238</v>
       </c>
       <c r="H19">
-        <v>0.634376716529907</v>
+        <v>0.2333273881572353</v>
       </c>
       <c r="I19">
-        <v>0.4793629698281947</v>
+        <v>0.171566355595175</v>
       </c>
       <c r="J19">
-        <v>0.3857749237761965</v>
+        <v>0.5984089018316894</v>
       </c>
       <c r="K19">
-        <v>0.5175547097831839</v>
+        <v>1.617208942113223</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.190479648850655</v>
+        <v>0.9868557677439043</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5021360786163882</v>
+        <v>1.521044284649435</v>
       </c>
       <c r="C20">
-        <v>0.07978889260138544</v>
+        <v>0.2544702543725208</v>
       </c>
       <c r="D20">
-        <v>0.4110319004278153</v>
+        <v>0.6293403731121145</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.09549066396913</v>
+        <v>0.6779526205118103</v>
       </c>
       <c r="G20">
-        <v>0.4794391778288585</v>
+        <v>0.2615464717479128</v>
       </c>
       <c r="H20">
-        <v>0.6325223728912803</v>
+        <v>0.2323576056033403</v>
       </c>
       <c r="I20">
-        <v>0.4771072843340995</v>
+        <v>0.1690203473164971</v>
       </c>
       <c r="J20">
-        <v>0.3910385694715757</v>
+        <v>0.6210267714047006</v>
       </c>
       <c r="K20">
-        <v>0.5368648222653576</v>
+        <v>1.678484284615507</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.184112603042351</v>
+        <v>0.9905383655092095</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5611201329543292</v>
+        <v>1.709987067895156</v>
       </c>
       <c r="C21">
-        <v>0.08916877213948737</v>
+        <v>0.2839259207983673</v>
       </c>
       <c r="D21">
-        <v>0.4305468038758136</v>
+        <v>0.7064224987625494</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.095906529456215</v>
+        <v>0.7218134528639553</v>
       </c>
       <c r="G21">
-        <v>0.4757993098459679</v>
+        <v>0.2716809735781283</v>
       </c>
       <c r="H21">
-        <v>0.6266319076395703</v>
+        <v>0.2298322944175126</v>
       </c>
       <c r="I21">
-        <v>0.4698768158702826</v>
+        <v>0.161341418943227</v>
       </c>
       <c r="J21">
-        <v>0.4089633190565962</v>
+        <v>0.6980649648619135</v>
       </c>
       <c r="K21">
-        <v>0.6016203031500993</v>
+        <v>1.884678764134662</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.16433351911725</v>
+        <v>1.007155952557483</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5995992136623158</v>
+        <v>1.833764593670907</v>
       </c>
       <c r="C22">
-        <v>0.09527841832198192</v>
+        <v>0.3032195986970407</v>
       </c>
       <c r="D22">
-        <v>0.4434302560893002</v>
+        <v>0.757328607486528</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.096753074516968</v>
+        <v>0.7521433930722736</v>
       </c>
       <c r="G22">
-        <v>0.4737414374487514</v>
+        <v>0.2793271671681765</v>
       </c>
       <c r="H22">
-        <v>0.623035400100342</v>
+        <v>0.2287574416259588</v>
       </c>
       <c r="I22">
-        <v>0.4654112322640032</v>
+        <v>0.157011980433083</v>
       </c>
       <c r="J22">
-        <v>0.4208566215411196</v>
+        <v>0.7492745949436568</v>
       </c>
       <c r="K22">
-        <v>0.6438449784263867</v>
+        <v>2.01974365389205</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.152610378831426</v>
+        <v>1.021382892678801</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5790689131097224</v>
+        <v>1.76767131216414</v>
       </c>
       <c r="C23">
-        <v>0.09201951400999064</v>
+        <v>0.2929176091351167</v>
       </c>
       <c r="D23">
-        <v>0.4365423502285637</v>
+        <v>0.730107278123171</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.09624866327772</v>
+        <v>0.7357961288262658</v>
       </c>
       <c r="G23">
-        <v>0.4748103523823346</v>
+        <v>0.2751482424943106</v>
       </c>
       <c r="H23">
-        <v>0.6249317552324243</v>
+        <v>0.229276503505865</v>
       </c>
       <c r="I23">
-        <v>0.4677707918667977</v>
+        <v>0.1592571834722598</v>
       </c>
       <c r="J23">
-        <v>0.414492624547961</v>
+        <v>0.7218588595001734</v>
       </c>
       <c r="K23">
-        <v>0.6213180157621991</v>
+        <v>1.947624542744876</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.158757029641265</v>
+        <v>1.013468221504837</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5011708857298629</v>
+        <v>1.517960158020514</v>
       </c>
       <c r="C24">
-        <v>0.07963524361019836</v>
+        <v>0.2539893899225092</v>
       </c>
       <c r="D24">
-        <v>0.4107151382963252</v>
+        <v>0.6280886846905389</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.095493568892763</v>
+        <v>0.6772622466075902</v>
       </c>
       <c r="G24">
-        <v>0.4795040797422061</v>
+        <v>0.2613971315957286</v>
       </c>
       <c r="H24">
-        <v>0.6326229258021172</v>
+        <v>0.2324081758084446</v>
       </c>
       <c r="I24">
-        <v>0.4772298462411193</v>
+        <v>0.1691569597612812</v>
       </c>
       <c r="J24">
-        <v>0.3907486133628879</v>
+        <v>0.6197809743733984</v>
       </c>
       <c r="K24">
-        <v>0.5358048576820522</v>
+        <v>1.675118306990925</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.184456184504285</v>
+        <v>0.9903206663874613</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.416869651338402</v>
+        <v>1.249471064096383</v>
       </c>
       <c r="C25">
-        <v>0.06619212042424749</v>
+        <v>0.2121178253470646</v>
       </c>
       <c r="D25">
-        <v>0.3834184442833646</v>
+        <v>0.5199881798042156</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.097146189578567</v>
+        <v>0.6205720448411682</v>
       </c>
       <c r="G25">
-        <v>0.4859411376194984</v>
+        <v>0.2505325188523173</v>
       </c>
       <c r="H25">
-        <v>0.642006818713007</v>
+        <v>0.2380722292963142</v>
       </c>
       <c r="I25">
-        <v>0.4885468655629701</v>
+        <v>0.1825612169237463</v>
       </c>
       <c r="J25">
-        <v>0.3659038219808366</v>
+        <v>0.512852484129283</v>
       </c>
       <c r="K25">
-        <v>0.4431782373231101</v>
+        <v>1.382055001359419</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.217336706370588</v>
+        <v>0.9785210190254077</v>
       </c>
     </row>
   </sheetData>
